--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="108">
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
@@ -1062,6 +1062,9 @@
   </si>
   <si>
     <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Khách</t>
   </si>
 </sst>
 </file>
@@ -1622,183 +1625,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1823,82 +1649,16 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,69 +1673,30 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1985,12 +1706,6 @@
     <xf numFmtId="9" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2000,9 +1715,6 @@
     <xf numFmtId="9" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,9 +1726,6 @@
     </xf>
     <xf numFmtId="9" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2106,9 +1815,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2134,6 +1840,303 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2417,10 +2420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,8 +2481,8 @@
       <c r="AI1" s="4"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -2515,164 +2519,164 @@
       <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="161"/>
+      <c r="AJ3" s="161"/>
     </row>
     <row r="4" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="70" t="s">
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="164"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="164"/>
+      <c r="AA4" s="164"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="164"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="159" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="81" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="70" t="s">
+      <c r="D5" s="166"/>
+      <c r="E5" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="159"/>
+      <c r="G5" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="159"/>
+      <c r="K5" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="70" t="s">
+      <c r="L5" s="168"/>
+      <c r="M5" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="73" t="s">
+      <c r="N5" s="159"/>
+      <c r="O5" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="70" t="s">
+      <c r="P5" s="169"/>
+      <c r="Q5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="70"/>
-      <c r="S5" s="74" t="s">
+      <c r="R5" s="159"/>
+      <c r="S5" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="74"/>
-      <c r="U5" s="70" t="s">
+      <c r="T5" s="170"/>
+      <c r="U5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="69" t="s">
+      <c r="V5" s="159"/>
+      <c r="W5" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="70" t="s">
+      <c r="X5" s="175"/>
+      <c r="Y5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="71" t="s">
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="70" t="s">
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70" t="s">
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="67" t="s">
+      <c r="AF5" s="159"/>
+      <c r="AG5" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="67" t="s">
+      <c r="AH5" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="AI5" s="70"/>
+      <c r="AI5" s="159"/>
     </row>
     <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
@@ -2763,9 +2767,9 @@
       <c r="AF6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="70"/>
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="172"/>
+      <c r="AI6" s="159"/>
     </row>
     <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -2876,11 +2880,11 @@
       <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
       <c r="AG8" s="33">
-        <f t="shared" ref="AG8:AG40" si="0">D8+F8+H8+J8+L8+N8+P8+R8+T8+V8+X8+Z8+AB8+AD8+AF8</f>
+        <f t="shared" ref="AG8:AG47" si="0">D8+F8+H8+J8+L8+N8+P8+R8+T8+V8+X8+Z8+AB8+AD8+AF8</f>
         <v>0</v>
       </c>
       <c r="AH8" s="33">
-        <f t="shared" ref="AH8:AH40" si="1">C8+E8+G8+I8+K8+M8+O8+Q8+S8+U8+W8+Y8+AA8+AC8+AE8</f>
+        <f t="shared" ref="AH8:AH47" si="1">C8+E8+G8+I8+K8+M8+O8+Q8+S8+U8+W8+Y8+AA8+AC8+AE8</f>
         <v>24</v>
       </c>
       <c r="AI8" s="33"/>
@@ -4214,9 +4218,13 @@
       </c>
       <c r="AI35" s="33"/>
     </row>
-    <row r="36" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="33"/>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>44149</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>96</v>
+      </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
@@ -4242,28 +4250,30 @@
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
+      <c r="AB36" s="39">
+        <v>1</v>
+      </c>
       <c r="AC36" s="33"/>
       <c r="AD36" s="33"/>
       <c r="AE36" s="33"/>
       <c r="AF36" s="33"/>
-      <c r="AG36" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
       <c r="AI36" s="33"/>
     </row>
-    <row r="37" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="33"/>
+    <row r="37" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>44150</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="F37" s="33">
+        <v>12</v>
+      </c>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
       <c r="I37" s="33"/>
@@ -4292,7 +4302,7 @@
       <c r="AF37" s="33"/>
       <c r="AG37" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH37" s="33">
         <f t="shared" si="1"/>
@@ -4300,9 +4310,11 @@
       </c>
       <c r="AI37" s="33"/>
     </row>
-    <row r="38" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
-      <c r="B38" s="33"/>
+      <c r="B38" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
@@ -4321,11 +4333,15 @@
       <c r="R38" s="33"/>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
-      <c r="U38" s="33"/>
+      <c r="U38" s="33">
+        <v>6</v>
+      </c>
       <c r="V38" s="33"/>
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
-      <c r="Y38" s="33"/>
+      <c r="Y38" s="33">
+        <v>12</v>
+      </c>
       <c r="Z38" s="33"/>
       <c r="AA38" s="39"/>
       <c r="AB38" s="39"/>
@@ -4339,61 +4355,71 @@
       </c>
       <c r="AH38" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI38" s="33"/>
     </row>
-    <row r="39" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
+    <row r="39" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>44152</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33">
+        <v>3</v>
+      </c>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
       <c r="AG39" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH39" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="43"/>
-    </row>
-    <row r="40" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI39" s="33"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
+      <c r="B40" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
       <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="G40" s="44">
+        <v>24</v>
+      </c>
       <c r="H40" s="44"/>
       <c r="I40" s="43"/>
       <c r="J40" s="43"/>
@@ -4405,7 +4431,9 @@
       <c r="P40" s="46"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
-      <c r="S40" s="47"/>
+      <c r="S40" s="47">
+        <v>24</v>
+      </c>
       <c r="T40" s="47"/>
       <c r="U40" s="43"/>
       <c r="V40" s="43"/>
@@ -4419,146 +4447,441 @@
       <c r="AD40" s="43"/>
       <c r="AE40" s="43"/>
       <c r="AF40" s="43"/>
-      <c r="AG40" s="51">
+      <c r="AG40" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="51">
+      <c r="AH40" s="33">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AI40" s="43"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43">
+        <v>1</v>
+      </c>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>44153</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="43"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="43"/>
+      <c r="AF44" s="43"/>
+      <c r="AG44" s="43"/>
+      <c r="AH44" s="43"/>
+      <c r="AI44" s="43"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="43"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="43"/>
+      <c r="AH45" s="43"/>
+      <c r="AI45" s="43"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="48"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="43"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="43"/>
+      <c r="AH46" s="43"/>
+      <c r="AI46" s="43"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="43"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="43"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="65">
-        <f>SUM(C6:C40)-SUM(D6:D40)</f>
+      <c r="AI47" s="43"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="173">
+        <f>SUM(C6:C47)-SUM(D6:D47)</f>
         <v>31</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="65">
-        <f t="shared" ref="E41" si="2">SUM(E6:E40)-SUM(F6:F40)</f>
-        <v>26</v>
-      </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="65">
-        <f t="shared" ref="G41" si="3">SUM(G6:G40)-SUM(H6:H40)</f>
+      <c r="D48" s="174"/>
+      <c r="E48" s="173">
+        <f t="shared" ref="E48" si="2">SUM(E6:E47)-SUM(F6:F47)</f>
+        <v>14</v>
+      </c>
+      <c r="F48" s="174"/>
+      <c r="G48" s="173">
+        <f t="shared" ref="G48" si="3">SUM(G6:G47)-SUM(H6:H47)</f>
+        <v>24</v>
+      </c>
+      <c r="H48" s="174"/>
+      <c r="I48" s="173">
+        <f t="shared" ref="I48" si="4">SUM(I6:I47)-SUM(J6:J47)</f>
+        <v>8</v>
+      </c>
+      <c r="J48" s="174"/>
+      <c r="K48" s="173">
+        <f t="shared" ref="K48" si="5">SUM(K6:K47)-SUM(L6:L47)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="65">
-        <f t="shared" ref="I41" si="4">SUM(I6:I40)-SUM(J6:J40)</f>
-        <v>9</v>
-      </c>
-      <c r="J41" s="66"/>
-      <c r="K41" s="65">
-        <f t="shared" ref="K41" si="5">SUM(K6:K40)-SUM(L6:L40)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="66"/>
-      <c r="M41" s="65">
-        <f t="shared" ref="M41" si="6">SUM(M6:M40)-SUM(N6:N40)</f>
+      <c r="L48" s="174"/>
+      <c r="M48" s="173">
+        <f t="shared" ref="M48" si="6">SUM(M6:M47)-SUM(N6:N47)</f>
         <v>4</v>
       </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="65">
-        <f t="shared" ref="O41" si="7">SUM(O6:O40)-SUM(P6:P40)</f>
+      <c r="N48" s="174"/>
+      <c r="O48" s="173">
+        <f t="shared" ref="O48" si="7">SUM(O6:O47)-SUM(P6:P47)</f>
         <v>4</v>
       </c>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="65">
-        <f t="shared" ref="Q41" si="8">SUM(Q6:Q40)-SUM(R6:R40)</f>
-        <v>30</v>
-      </c>
-      <c r="R41" s="66"/>
-      <c r="S41" s="65">
-        <f t="shared" ref="S41" si="9">SUM(S6:S40)-SUM(T6:T40)</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="66"/>
-      <c r="U41" s="65">
-        <f t="shared" ref="U41" si="10">SUM(U6:U40)-SUM(V6:V40)</f>
-        <v>1</v>
-      </c>
-      <c r="V41" s="66"/>
-      <c r="W41" s="65">
-        <f t="shared" ref="W41" si="11">SUM(W6:W40)-SUM(X6:X40)</f>
+      <c r="P48" s="174"/>
+      <c r="Q48" s="173">
+        <f t="shared" ref="Q48" si="8">SUM(Q6:Q47)-SUM(R6:R47)</f>
+        <v>27</v>
+      </c>
+      <c r="R48" s="174"/>
+      <c r="S48" s="173">
+        <f t="shared" ref="S48" si="9">SUM(S6:S47)-SUM(T6:T47)</f>
+        <v>24</v>
+      </c>
+      <c r="T48" s="174"/>
+      <c r="U48" s="173">
+        <f t="shared" ref="U48" si="10">SUM(U6:U47)-SUM(V6:V47)</f>
+        <v>7</v>
+      </c>
+      <c r="V48" s="174"/>
+      <c r="W48" s="173">
+        <f t="shared" ref="W48" si="11">SUM(W6:W47)-SUM(X6:X47)</f>
         <v>46</v>
       </c>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="65">
-        <f t="shared" ref="Y41" si="12">SUM(Y6:Y40)-SUM(Z6:Z40)</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="65">
-        <f t="shared" ref="AA41" si="13">SUM(AA6:AA40)-SUM(AB6:AB40)</f>
-        <v>201</v>
-      </c>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="65">
-        <f t="shared" ref="AC41" si="14">SUM(AC6:AC40)-SUM(AD6:AD40)</f>
+      <c r="X48" s="174"/>
+      <c r="Y48" s="173">
+        <f t="shared" ref="Y48" si="12">SUM(Y6:Y47)-SUM(Z6:Z47)</f>
+        <v>12</v>
+      </c>
+      <c r="Z48" s="174"/>
+      <c r="AA48" s="173">
+        <f t="shared" ref="AA48" si="13">SUM(AA6:AA47)-SUM(AB6:AB47)</f>
+        <v>200</v>
+      </c>
+      <c r="AB48" s="174"/>
+      <c r="AC48" s="173">
+        <f t="shared" ref="AC48" si="14">SUM(AC6:AC47)-SUM(AD6:AD47)</f>
         <v>73</v>
       </c>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="65">
-        <f t="shared" ref="AE41" si="15">SUM(AE6:AE40)-SUM(AF6:AF40)</f>
+      <c r="AD48" s="174"/>
+      <c r="AE48" s="173">
+        <f t="shared" ref="AE48" si="15">SUM(AE6:AE47)-SUM(AF6:AF47)</f>
         <v>12</v>
       </c>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="23">
-        <f>SUM(AG7:AG40)</f>
-        <v>262</v>
-      </c>
-      <c r="AH41" s="23">
-        <f>SUM(AH7:AH40)</f>
-        <v>699</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="AF48" s="174"/>
+      <c r="AG48" s="23">
+        <f>SUM(AG7:AG47)</f>
+        <v>277</v>
+      </c>
+      <c r="AH48" s="23">
+        <f>SUM(AH7:AH47)</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="61"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="61"/>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="63">
-        <f>AH41-AG41</f>
-        <v>437</v>
-      </c>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="54"/>
+      <c r="B49" s="178"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="178"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="178"/>
+      <c r="K49" s="178"/>
+      <c r="L49" s="178"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="178"/>
+      <c r="O49" s="178"/>
+      <c r="P49" s="178"/>
+      <c r="Q49" s="178"/>
+      <c r="R49" s="178"/>
+      <c r="S49" s="178"/>
+      <c r="T49" s="178"/>
+      <c r="U49" s="178"/>
+      <c r="V49" s="178"/>
+      <c r="W49" s="178"/>
+      <c r="X49" s="178"/>
+      <c r="Y49" s="178"/>
+      <c r="Z49" s="178"/>
+      <c r="AA49" s="178"/>
+      <c r="AB49" s="178"/>
+      <c r="AC49" s="178"/>
+      <c r="AD49" s="178"/>
+      <c r="AE49" s="179"/>
+      <c r="AF49" s="180">
+        <f>AH48-AG48</f>
+        <v>488</v>
+      </c>
+      <c r="AG49" s="181"/>
+      <c r="AH49" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:AJ3"/>
@@ -4575,30 +4898,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.2" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4639,191 +4938,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="182"/>
       <c r="AE2" s="56"/>
       <c r="AF2" s="56"/>
       <c r="AG2" s="56"/>
     </row>
     <row r="3" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="67" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="171" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="184"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="78" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="117" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="78" t="s">
+      <c r="H4" s="193"/>
+      <c r="I4" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="101" t="s">
+      <c r="J4" s="165"/>
+      <c r="K4" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="195"/>
+      <c r="M4" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="103" t="s">
+      <c r="N4" s="165"/>
+      <c r="O4" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="78" t="s">
+      <c r="P4" s="197"/>
+      <c r="Q4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="80"/>
-      <c r="S4" s="105" t="s">
+      <c r="R4" s="165"/>
+      <c r="S4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="106"/>
-      <c r="U4" s="78" t="s">
+      <c r="T4" s="199"/>
+      <c r="U4" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="W4" s="97" t="s">
+      <c r="V4" s="165"/>
+      <c r="W4" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="78" t="s">
+      <c r="X4" s="201"/>
+      <c r="Y4" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="99" t="s">
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="78" t="s">
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="67" t="s">
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="AF4" s="67" t="s">
+      <c r="AF4" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="AG4" s="114"/>
+      <c r="AG4" s="189"/>
     </row>
     <row r="5" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
@@ -4908,9 +5207,9 @@
       <c r="AD5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="172"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -6997,76 +7296,76 @@
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="91">
+      <c r="C50" s="212">
         <f>SUM(C5:C49)-SUM(D5:D49)</f>
         <v>72</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="63">
+      <c r="D50" s="213"/>
+      <c r="E50" s="180">
         <f>SUM(E5:E49)-SUM(F5:F49)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="64"/>
-      <c r="G50" s="93">
+      <c r="F50" s="181"/>
+      <c r="G50" s="214">
         <f>SUM(G5:G49)-SUM(H5:H49)</f>
         <v>216</v>
       </c>
-      <c r="H50" s="94"/>
-      <c r="I50" s="63">
+      <c r="H50" s="215"/>
+      <c r="I50" s="180">
         <f>SUM(I5:I49)-SUM(J6:J50)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="64"/>
-      <c r="K50" s="95">
+      <c r="J50" s="181"/>
+      <c r="K50" s="216">
         <f>SUM(K5:K49)-SUM(L5:L49)</f>
         <v>0</v>
       </c>
-      <c r="L50" s="96"/>
-      <c r="M50" s="63">
+      <c r="L50" s="217"/>
+      <c r="M50" s="180">
         <f>SUM(M5:M49)-SUM(N5:N49)</f>
         <v>144</v>
       </c>
-      <c r="N50" s="64"/>
-      <c r="O50" s="85">
+      <c r="N50" s="181"/>
+      <c r="O50" s="206">
         <f>SUM(O5:O49)-SUM(P5:P49)</f>
         <v>96</v>
       </c>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="63">
+      <c r="P50" s="207"/>
+      <c r="Q50" s="180">
         <f>SUM(Q5:Q49)-SUM(R5:R49)</f>
         <v>0</v>
       </c>
-      <c r="R50" s="64"/>
-      <c r="S50" s="87">
+      <c r="R50" s="181"/>
+      <c r="S50" s="208">
         <f>SUM(S5:S49)-SUM(T5:T49)</f>
         <v>96</v>
       </c>
-      <c r="T50" s="88"/>
-      <c r="U50" s="63">
+      <c r="T50" s="209"/>
+      <c r="U50" s="180">
         <f>SUM(U5:U49)-SUM(V5:V49)</f>
         <v>84</v>
       </c>
-      <c r="V50" s="64"/>
-      <c r="W50" s="89">
+      <c r="V50" s="181"/>
+      <c r="W50" s="210">
         <f>SUM(W5:W49)-SUM(X5:X49)</f>
         <v>0</v>
       </c>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="63">
+      <c r="X50" s="211"/>
+      <c r="Y50" s="180">
         <f>SUM(Y5:Y49)-SUM(Z5:Z49)</f>
         <v>204</v>
       </c>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="83">
+      <c r="Z50" s="181"/>
+      <c r="AA50" s="204">
         <f>SUM(AA5:AA49)-SUM(AB5:AB49)</f>
         <v>0</v>
       </c>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="63">
+      <c r="AB50" s="205"/>
+      <c r="AC50" s="180">
         <f>SUM(AC5:AC49)-SUM(AD5:AD49)</f>
         <v>0</v>
       </c>
-      <c r="AD50" s="64"/>
+      <c r="AD50" s="181"/>
       <c r="AE50" s="23">
         <f>SUM(AE6:AE49)</f>
         <v>1595</v>
@@ -7077,38 +7376,38 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
-      <c r="U51" s="61"/>
-      <c r="V51" s="61"/>
-      <c r="W51" s="61"/>
-      <c r="X51" s="61"/>
-      <c r="Y51" s="61"/>
-      <c r="Z51" s="61"/>
-      <c r="AA51" s="61"/>
-      <c r="AB51" s="61"/>
-      <c r="AC51" s="61"/>
-      <c r="AD51" s="61"/>
+      <c r="B51" s="178"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
+      <c r="H51" s="178"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="178"/>
+      <c r="K51" s="178"/>
+      <c r="L51" s="178"/>
+      <c r="M51" s="178"/>
+      <c r="N51" s="178"/>
+      <c r="O51" s="178"/>
+      <c r="P51" s="178"/>
+      <c r="Q51" s="178"/>
+      <c r="R51" s="178"/>
+      <c r="S51" s="178"/>
+      <c r="T51" s="178"/>
+      <c r="U51" s="178"/>
+      <c r="V51" s="178"/>
+      <c r="W51" s="178"/>
+      <c r="X51" s="178"/>
+      <c r="Y51" s="178"/>
+      <c r="Z51" s="178"/>
+      <c r="AA51" s="178"/>
+      <c r="AB51" s="178"/>
+      <c r="AC51" s="178"/>
+      <c r="AD51" s="178"/>
       <c r="AE51" s="57">
         <f>AF50-AE50</f>
         <v>924</v>
@@ -7116,6 +7415,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="A51:AD51"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:A5"/>
@@ -7132,27 +7452,6 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="A51:AD51"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.2" top="0.34" bottom="0.38" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7164,8 +7463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7187,1899 +7486,1879 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="124"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="124"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="65"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
+      <c r="A4" s="241"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="241"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="242" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="134" t="s">
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="252" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136" t="s">
+      <c r="H5" s="253"/>
+      <c r="I5" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="257" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="130" t="s">
+      <c r="K5" s="257"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="243" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="136" t="s">
+      <c r="N5" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="138" t="s">
+      <c r="O5" s="233" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146" t="s">
+      <c r="A6" s="242"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="250"/>
+      <c r="E6" s="250"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="235" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="146" t="s">
+      <c r="L6" s="234" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="139"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="138"/>
+      <c r="M6" s="244"/>
+      <c r="N6" s="256"/>
+      <c r="O6" s="233"/>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="148" t="s">
+      <c r="A7" s="242"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="149" t="s">
+      <c r="F7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="151" t="s">
+      <c r="H7" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="152"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="138"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="245"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="233"/>
     </row>
     <row r="8" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153">
+      <c r="A8" s="72">
         <v>44138</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="155">
+      <c r="D8" s="74">
         <v>1</v>
       </c>
-      <c r="E8" s="156">
+      <c r="E8" s="75">
         <v>455000</v>
       </c>
-      <c r="F8" s="156">
+      <c r="F8" s="75">
         <f>E8</f>
         <v>455000</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="156">
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="75">
         <f>F8</f>
         <v>455000</v>
       </c>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156">
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75">
         <f>I8</f>
         <v>455000</v>
       </c>
-      <c r="M8" s="158" t="s">
+      <c r="M8" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="156"/>
-      <c r="O8" s="155"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153">
+      <c r="A9" s="72">
         <v>44141</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="155">
+      <c r="D9" s="74">
         <v>1</v>
       </c>
-      <c r="E9" s="156">
+      <c r="E9" s="75">
         <v>520000</v>
       </c>
-      <c r="F9" s="156">
+      <c r="F9" s="75">
         <f>E9</f>
         <v>520000</v>
       </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="156">
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="75">
         <f>F9</f>
         <v>520000</v>
       </c>
-      <c r="J9" s="156">
+      <c r="J9" s="75">
         <f>I9</f>
         <v>520000</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="158" t="s">
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="156"/>
-      <c r="O9" s="155"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="159">
+      <c r="A10" s="225">
         <v>44142</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="237" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="161">
+      <c r="D10" s="78">
         <v>2</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="79">
         <v>255000</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="79">
         <f>D10*E10</f>
         <v>510000</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="163">
+      <c r="G10" s="79"/>
+      <c r="H10" s="80">
         <v>0.1</v>
       </c>
-      <c r="I10" s="162">
+      <c r="I10" s="79">
         <f>F10*(1-H10)</f>
         <v>459000</v>
       </c>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="164">
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="81">
         <f>F10*(1-H10)</f>
         <v>459000</v>
       </c>
-      <c r="M10" s="165" t="s">
+      <c r="M10" s="232" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="164"/>
-      <c r="O10" s="166"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="82"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169" t="s">
+      <c r="A11" s="226"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="169">
+      <c r="D11" s="83">
         <v>1</v>
       </c>
-      <c r="E11" s="170">
+      <c r="E11" s="84">
         <v>485000</v>
       </c>
-      <c r="F11" s="170">
+      <c r="F11" s="84">
         <f t="shared" ref="F11:F12" si="0">D11*E11</f>
         <v>485000</v>
       </c>
-      <c r="G11" s="170"/>
-      <c r="H11" s="171">
+      <c r="G11" s="84"/>
+      <c r="H11" s="85">
         <v>0.1</v>
       </c>
-      <c r="I11" s="170">
+      <c r="I11" s="84">
         <f>F11*(1-H11)</f>
         <v>436500</v>
       </c>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="172">
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="86">
         <f>F11*(1-H11)</f>
         <v>436500</v>
       </c>
-      <c r="M11" s="173"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="169"/>
+      <c r="M11" s="228"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="83"/>
     </row>
     <row r="12" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176" t="s">
+      <c r="A12" s="229"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="176">
+      <c r="D12" s="87">
         <v>2</v>
       </c>
-      <c r="E12" s="177">
+      <c r="E12" s="88">
         <v>455000</v>
       </c>
-      <c r="F12" s="177">
+      <c r="F12" s="88">
         <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="G12" s="177"/>
-      <c r="H12" s="178">
+      <c r="G12" s="88"/>
+      <c r="H12" s="89">
         <v>0.1</v>
       </c>
-      <c r="I12" s="177">
+      <c r="I12" s="88">
         <f>F12*(1-H12)</f>
         <v>819000</v>
       </c>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="179">
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="90">
         <f>F12*(1-H12)</f>
         <v>819000</v>
       </c>
-      <c r="M12" s="180"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="181"/>
+      <c r="M12" s="231"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="167">
+      <c r="A13" s="226">
         <v>44142</v>
       </c>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="183" t="s">
+      <c r="C13" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="183">
+      <c r="D13" s="92">
         <v>1</v>
       </c>
-      <c r="E13" s="184">
+      <c r="E13" s="93">
         <v>465000</v>
       </c>
-      <c r="F13" s="170">
+      <c r="F13" s="84">
         <f>D13*E13</f>
         <v>465000</v>
       </c>
-      <c r="G13" s="184">
+      <c r="G13" s="93">
         <v>50000</v>
       </c>
-      <c r="H13" s="185"/>
-      <c r="I13" s="170">
+      <c r="H13" s="94"/>
+      <c r="I13" s="84">
         <f t="shared" ref="I13:I18" si="1">F13-G13</f>
         <v>415000</v>
       </c>
-      <c r="J13" s="170">
+      <c r="J13" s="84">
         <f>I13</f>
         <v>415000</v>
       </c>
-      <c r="K13" s="184"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="173" t="s">
+      <c r="K13" s="93"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="186"/>
-      <c r="O13" s="187"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="167"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="169" t="s">
+      <c r="A14" s="226"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="169">
+      <c r="D14" s="83">
         <v>1</v>
       </c>
-      <c r="E14" s="170">
+      <c r="E14" s="84">
         <v>255000</v>
       </c>
-      <c r="F14" s="170">
+      <c r="F14" s="84">
         <f t="shared" ref="F14" si="2">D14*E14</f>
         <v>255000</v>
       </c>
-      <c r="G14" s="170">
+      <c r="G14" s="84">
         <v>25000</v>
       </c>
-      <c r="H14" s="171"/>
-      <c r="I14" s="170">
+      <c r="H14" s="85"/>
+      <c r="I14" s="84">
         <f t="shared" si="1"/>
         <v>230000</v>
       </c>
-      <c r="J14" s="170">
+      <c r="J14" s="84">
         <f t="shared" ref="J14:J15" si="3">I14</f>
         <v>230000</v>
       </c>
-      <c r="K14" s="170"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="169"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="83"/>
     </row>
     <row r="15" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
-      <c r="B15" s="189"/>
-      <c r="C15" s="176" t="s">
+      <c r="A15" s="229"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="176">
+      <c r="D15" s="87">
         <v>1</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="88">
         <v>485000</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="88">
         <f>D15*E15</f>
         <v>485000</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="88">
         <v>50000</v>
       </c>
-      <c r="H15" s="178"/>
-      <c r="I15" s="177">
+      <c r="H15" s="89"/>
+      <c r="I15" s="88">
         <f t="shared" si="1"/>
         <v>435000</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="88">
         <f t="shared" si="3"/>
         <v>435000</v>
       </c>
-      <c r="K15" s="177"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="181"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159">
+      <c r="A16" s="225">
         <v>44143</v>
       </c>
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="221" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="161">
+      <c r="D16" s="78">
         <v>1</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="79">
         <v>255000</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="79">
         <f t="shared" ref="F16:F29" si="4">D16*E16</f>
         <v>255000</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="79">
         <v>25000</v>
       </c>
-      <c r="H16" s="163"/>
-      <c r="I16" s="162">
+      <c r="H16" s="80"/>
+      <c r="I16" s="79">
         <f t="shared" si="1"/>
         <v>230000</v>
       </c>
-      <c r="J16" s="162">
+      <c r="J16" s="79">
         <f>I16</f>
         <v>230000</v>
       </c>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="165" t="s">
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="232" t="s">
         <v>81</v>
       </c>
-      <c r="N16" s="162"/>
-      <c r="O16" s="161"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="78"/>
     </row>
     <row r="17" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="167"/>
-      <c r="B17" s="188"/>
-      <c r="C17" s="169" t="s">
+      <c r="A17" s="226"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="169">
+      <c r="D17" s="83">
         <v>1</v>
       </c>
-      <c r="E17" s="170">
+      <c r="E17" s="84">
         <v>520000</v>
       </c>
-      <c r="F17" s="170">
+      <c r="F17" s="84">
         <f t="shared" si="4"/>
         <v>520000</v>
       </c>
-      <c r="G17" s="170"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="170">
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="84">
         <f t="shared" si="1"/>
         <v>520000</v>
       </c>
-      <c r="J17" s="170">
+      <c r="J17" s="84">
         <f>I17</f>
         <v>520000</v>
       </c>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="169"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="83"/>
     </row>
     <row r="18" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="167"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="169" t="s">
+      <c r="A18" s="226"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="169">
+      <c r="D18" s="83">
         <v>1</v>
       </c>
-      <c r="E18" s="170">
+      <c r="E18" s="84">
         <v>455000</v>
       </c>
-      <c r="F18" s="170">
+      <c r="F18" s="84">
         <f t="shared" si="4"/>
         <v>455000</v>
       </c>
-      <c r="G18" s="170">
+      <c r="G18" s="84">
         <v>45000</v>
       </c>
-      <c r="H18" s="171"/>
-      <c r="I18" s="170">
+      <c r="H18" s="85"/>
+      <c r="I18" s="84">
         <f t="shared" si="1"/>
         <v>410000</v>
       </c>
-      <c r="J18" s="170">
+      <c r="J18" s="84">
         <f t="shared" ref="J18:J28" si="5">I18</f>
         <v>410000</v>
       </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="169"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="83"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="169" t="s">
+      <c r="A19" s="226"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="169">
+      <c r="D19" s="83">
         <v>1</v>
       </c>
-      <c r="E19" s="170">
+      <c r="E19" s="84">
         <v>255000</v>
       </c>
-      <c r="F19" s="170">
+      <c r="F19" s="84">
         <f t="shared" si="4"/>
         <v>255000</v>
       </c>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171">
+      <c r="G19" s="84"/>
+      <c r="H19" s="85">
         <v>1</v>
       </c>
-      <c r="I19" s="170">
+      <c r="I19" s="84">
         <f>F19*(1-H19)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="170">
+      <c r="J19" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="190" t="s">
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="97" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="169" t="s">
+      <c r="A20" s="226"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="169">
+      <c r="D20" s="83">
         <v>1</v>
       </c>
-      <c r="E20" s="170">
+      <c r="E20" s="84">
         <v>110000</v>
       </c>
-      <c r="F20" s="170">
+      <c r="F20" s="84">
         <f t="shared" si="4"/>
         <v>110000</v>
       </c>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="170">
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="84">
         <f t="shared" ref="I20:I29" si="6">F20-G20</f>
         <v>110000</v>
       </c>
-      <c r="J20" s="170">
+      <c r="J20" s="84">
         <f t="shared" si="5"/>
         <v>110000</v>
       </c>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="169"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="83"/>
     </row>
     <row r="21" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
-      <c r="B21" s="189"/>
-      <c r="C21" s="176" t="s">
+      <c r="A21" s="229"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="176">
+      <c r="D21" s="87">
         <v>1</v>
       </c>
-      <c r="E21" s="177">
+      <c r="E21" s="88">
         <v>580000</v>
       </c>
-      <c r="F21" s="177">
+      <c r="F21" s="88">
         <f t="shared" si="4"/>
         <v>580000</v>
       </c>
-      <c r="G21" s="177"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="177">
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88">
         <f t="shared" si="6"/>
         <v>580000</v>
       </c>
-      <c r="J21" s="177">
+      <c r="J21" s="88">
         <f t="shared" si="5"/>
         <v>580000</v>
       </c>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="176"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="87"/>
     </row>
     <row r="22" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="191">
+      <c r="A22" s="219">
         <v>44144</v>
       </c>
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="221" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="192">
+      <c r="D22" s="98">
         <v>1</v>
       </c>
-      <c r="E22" s="193">
+      <c r="E22" s="99">
         <v>485000</v>
       </c>
-      <c r="F22" s="193">
+      <c r="F22" s="99">
         <f t="shared" si="4"/>
         <v>485000</v>
       </c>
-      <c r="G22" s="193">
+      <c r="G22" s="99">
         <v>50000</v>
       </c>
-      <c r="H22" s="194"/>
-      <c r="I22" s="193">
+      <c r="H22" s="100"/>
+      <c r="I22" s="99">
         <f t="shared" si="6"/>
         <v>435000</v>
       </c>
-      <c r="J22" s="193">
+      <c r="J22" s="99">
         <f t="shared" si="5"/>
         <v>435000</v>
       </c>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="195" t="s">
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="N22" s="193"/>
-      <c r="O22" s="192"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="98"/>
     </row>
     <row r="23" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="196"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="197" t="s">
+      <c r="A23" s="220"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="197">
+      <c r="D23" s="101">
         <v>1</v>
       </c>
-      <c r="E23" s="198">
+      <c r="E23" s="102">
         <v>85000</v>
       </c>
-      <c r="F23" s="198">
+      <c r="F23" s="102">
         <f t="shared" si="4"/>
         <v>85000</v>
       </c>
-      <c r="G23" s="198"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="198">
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="102">
         <f t="shared" si="6"/>
         <v>85000</v>
       </c>
-      <c r="J23" s="198">
+      <c r="J23" s="102">
         <f t="shared" si="5"/>
         <v>85000</v>
       </c>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="197"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="101"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="201">
+      <c r="A24" s="104">
         <v>44145</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="203"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="202"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="105"/>
     </row>
     <row r="25" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="159">
+      <c r="A25" s="225">
         <v>44146</v>
       </c>
-      <c r="B25" s="205" t="s">
+      <c r="B25" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="206" t="s">
+      <c r="C25" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="207">
+      <c r="D25" s="109">
         <v>1</v>
       </c>
-      <c r="E25" s="208">
+      <c r="E25" s="110">
         <v>275000</v>
       </c>
-      <c r="F25" s="208">
+      <c r="F25" s="110">
         <f t="shared" si="4"/>
         <v>275000</v>
       </c>
-      <c r="G25" s="208"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="208">
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="110">
         <f t="shared" si="6"/>
         <v>275000</v>
       </c>
-      <c r="J25" s="208">
+      <c r="J25" s="110">
         <f t="shared" si="5"/>
         <v>275000</v>
       </c>
-      <c r="K25" s="208"/>
-      <c r="L25" s="208"/>
-      <c r="M25" s="173" t="s">
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="208"/>
-      <c r="O25" s="206"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="108"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="167"/>
-      <c r="B26" s="205"/>
-      <c r="C26" s="210" t="s">
+      <c r="A26" s="226"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="211">
+      <c r="D26" s="113">
         <v>1</v>
       </c>
-      <c r="E26" s="212">
+      <c r="E26" s="114">
         <v>195000</v>
       </c>
-      <c r="F26" s="212">
+      <c r="F26" s="114">
         <f t="shared" si="4"/>
         <v>195000</v>
       </c>
-      <c r="G26" s="212"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="212">
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="114">
         <f t="shared" si="6"/>
         <v>195000</v>
       </c>
-      <c r="J26" s="212">
+      <c r="J26" s="114">
         <f t="shared" si="5"/>
         <v>195000</v>
       </c>
-      <c r="K26" s="212"/>
-      <c r="L26" s="212"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="212"/>
-      <c r="O26" s="210"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="228"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="167"/>
-      <c r="B27" s="205"/>
-      <c r="C27" s="210" t="s">
+      <c r="A27" s="226"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="211">
+      <c r="D27" s="113">
         <v>1</v>
       </c>
-      <c r="E27" s="212">
+      <c r="E27" s="114">
         <v>550000</v>
       </c>
-      <c r="F27" s="212">
+      <c r="F27" s="114">
         <f t="shared" si="4"/>
         <v>550000</v>
       </c>
-      <c r="G27" s="212"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="212">
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="114">
         <f t="shared" si="6"/>
         <v>550000</v>
       </c>
-      <c r="J27" s="212">
+      <c r="J27" s="114">
         <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-      <c r="K27" s="212"/>
-      <c r="L27" s="212"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="212"/>
-      <c r="O27" s="210"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="228"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="112"/>
     </row>
     <row r="28" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="167"/>
-      <c r="B28" s="205"/>
-      <c r="C28" s="214" t="s">
+      <c r="A28" s="226"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="215">
+      <c r="D28" s="117">
         <v>1</v>
       </c>
-      <c r="E28" s="216">
+      <c r="E28" s="118">
         <v>225000</v>
       </c>
-      <c r="F28" s="216">
+      <c r="F28" s="118">
         <f t="shared" si="4"/>
         <v>225000</v>
       </c>
-      <c r="G28" s="216"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="216">
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="118">
         <f t="shared" si="6"/>
         <v>225000</v>
       </c>
-      <c r="J28" s="216">
+      <c r="J28" s="118">
         <f t="shared" si="5"/>
         <v>225000</v>
       </c>
-      <c r="K28" s="216"/>
-      <c r="L28" s="216"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="216"/>
-      <c r="O28" s="214"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="228"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="116"/>
     </row>
     <row r="29" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="218">
+      <c r="A29" s="120">
         <v>12</v>
       </c>
-      <c r="B29" s="219" t="s">
+      <c r="B29" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="202" t="s">
+      <c r="C29" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="220">
+      <c r="D29" s="122">
         <v>1</v>
       </c>
-      <c r="E29" s="203">
+      <c r="E29" s="106">
         <v>200000</v>
       </c>
-      <c r="F29" s="203">
+      <c r="F29" s="106">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-      <c r="G29" s="203"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="203">
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="106">
         <f t="shared" si="6"/>
         <v>200000</v>
       </c>
-      <c r="J29" s="203">
+      <c r="J29" s="106">
         <v>200000</v>
       </c>
-      <c r="K29" s="203"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="202" t="s">
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="203"/>
-      <c r="O29" s="202"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="105"/>
     </row>
     <row r="30" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="225"/>
-      <c r="L30" s="225"/>
-      <c r="M30" s="222"/>
-      <c r="N30" s="225"/>
-      <c r="O30" s="222"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="124"/>
     </row>
     <row r="31" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="226"/>
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="230"/>
-      <c r="K31" s="230"/>
-      <c r="L31" s="230"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="230"/>
-      <c r="O31" s="227"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="129"/>
     </row>
     <row r="32" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="232"/>
-      <c r="B32" s="227"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="230"/>
-      <c r="K32" s="230"/>
-      <c r="L32" s="230"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="227"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="129"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="232"/>
-      <c r="B33" s="227"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="229"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="230"/>
-      <c r="K33" s="230"/>
-      <c r="L33" s="230"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="230"/>
-      <c r="O33" s="227"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="129"/>
     </row>
     <row r="34" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="232"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="227"/>
-      <c r="D34" s="228"/>
-      <c r="E34" s="228"/>
-      <c r="F34" s="228"/>
-      <c r="G34" s="228"/>
-      <c r="H34" s="229"/>
-      <c r="I34" s="230"/>
-      <c r="J34" s="230"/>
-      <c r="K34" s="230"/>
-      <c r="L34" s="230"/>
-      <c r="M34" s="233"/>
-      <c r="N34" s="230"/>
-      <c r="O34" s="227"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="135"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="129"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="232"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="230"/>
-      <c r="K35" s="230"/>
-      <c r="L35" s="230"/>
-      <c r="M35" s="233"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="227"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="129"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="226"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="228"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="230"/>
-      <c r="J36" s="230"/>
-      <c r="K36" s="230"/>
-      <c r="L36" s="230"/>
-      <c r="M36" s="231"/>
-      <c r="N36" s="230"/>
-      <c r="O36" s="227"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="129"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="226"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="228"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="228"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="230"/>
-      <c r="J37" s="230"/>
-      <c r="K37" s="230"/>
-      <c r="L37" s="230"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="230"/>
-      <c r="O37" s="227"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="129"/>
     </row>
     <row r="38" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="226"/>
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="228"/>
-      <c r="F38" s="228"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="229"/>
-      <c r="I38" s="230"/>
-      <c r="J38" s="230"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="230"/>
-      <c r="M38" s="231"/>
-      <c r="N38" s="230"/>
-      <c r="O38" s="227"/>
+      <c r="A38" s="128"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="129"/>
     </row>
     <row r="39" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="226"/>
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="229"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
-      <c r="K39" s="230"/>
-      <c r="L39" s="230"/>
-      <c r="M39" s="231"/>
-      <c r="N39" s="230"/>
-      <c r="O39" s="227"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="129"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="232"/>
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="228"/>
-      <c r="G40" s="228"/>
-      <c r="H40" s="229"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="230"/>
-      <c r="K40" s="230"/>
-      <c r="L40" s="230"/>
-      <c r="M40" s="233"/>
-      <c r="N40" s="230"/>
-      <c r="O40" s="227"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="129"/>
     </row>
     <row r="41" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="232"/>
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="228"/>
-      <c r="E41" s="228"/>
-      <c r="F41" s="228"/>
-      <c r="G41" s="228"/>
-      <c r="H41" s="229"/>
-      <c r="I41" s="228"/>
-      <c r="J41" s="228"/>
-      <c r="K41" s="228"/>
-      <c r="L41" s="228"/>
-      <c r="M41" s="233"/>
-      <c r="N41" s="228"/>
-      <c r="O41" s="227"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="129"/>
     </row>
     <row r="42" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="232"/>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="229"/>
-      <c r="I42" s="228"/>
-      <c r="J42" s="228"/>
-      <c r="K42" s="228"/>
-      <c r="L42" s="228"/>
-      <c r="M42" s="233"/>
-      <c r="N42" s="228"/>
-      <c r="O42" s="227"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="129"/>
     </row>
     <row r="43" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="232"/>
-      <c r="B43" s="227"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="228"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="228"/>
-      <c r="L43" s="228"/>
-      <c r="M43" s="233"/>
-      <c r="N43" s="228"/>
-      <c r="O43" s="227"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="129"/>
     </row>
     <row r="44" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="232"/>
-      <c r="B44" s="227"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="228"/>
-      <c r="F44" s="228"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="229"/>
-      <c r="I44" s="228"/>
-      <c r="J44" s="228"/>
-      <c r="K44" s="228"/>
-      <c r="L44" s="228"/>
-      <c r="M44" s="233"/>
-      <c r="N44" s="228"/>
-      <c r="O44" s="234"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="135"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="136"/>
     </row>
     <row r="45" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="232"/>
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="228"/>
-      <c r="H45" s="229"/>
-      <c r="I45" s="228"/>
-      <c r="J45" s="228"/>
-      <c r="K45" s="228"/>
-      <c r="L45" s="228"/>
-      <c r="M45" s="233"/>
-      <c r="N45" s="228"/>
-      <c r="O45" s="234"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="136"/>
     </row>
     <row r="46" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="232"/>
-      <c r="B46" s="227"/>
-      <c r="C46" s="227"/>
-      <c r="D46" s="228"/>
-      <c r="E46" s="228"/>
-      <c r="F46" s="228"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="229"/>
-      <c r="I46" s="228"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="228"/>
-      <c r="L46" s="228"/>
-      <c r="M46" s="233"/>
-      <c r="N46" s="228"/>
-      <c r="O46" s="234"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="135"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="136"/>
     </row>
     <row r="47" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="232"/>
-      <c r="B47" s="227"/>
-      <c r="C47" s="227"/>
-      <c r="D47" s="228"/>
-      <c r="E47" s="228"/>
-      <c r="F47" s="228"/>
-      <c r="G47" s="228"/>
-      <c r="H47" s="229"/>
-      <c r="I47" s="228"/>
-      <c r="J47" s="228"/>
-      <c r="K47" s="228"/>
-      <c r="L47" s="228"/>
-      <c r="M47" s="233"/>
-      <c r="N47" s="228"/>
-      <c r="O47" s="234"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="130"/>
+      <c r="O47" s="136"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="232"/>
-      <c r="B48" s="227"/>
-      <c r="C48" s="227"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="228"/>
-      <c r="H48" s="229"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="228"/>
-      <c r="L48" s="228"/>
-      <c r="M48" s="233"/>
-      <c r="N48" s="228"/>
-      <c r="O48" s="234"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="135"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="136"/>
     </row>
     <row r="49" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="232"/>
-      <c r="B49" s="227"/>
-      <c r="C49" s="227"/>
-      <c r="D49" s="228"/>
-      <c r="E49" s="228"/>
-      <c r="F49" s="228"/>
-      <c r="G49" s="228"/>
-      <c r="H49" s="229"/>
-      <c r="I49" s="228"/>
-      <c r="J49" s="228"/>
-      <c r="K49" s="228"/>
-      <c r="L49" s="228"/>
-      <c r="M49" s="233"/>
-      <c r="N49" s="228"/>
-      <c r="O49" s="234"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="136"/>
     </row>
     <row r="50" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="226"/>
-      <c r="B50" s="227"/>
-      <c r="C50" s="227"/>
-      <c r="D50" s="228"/>
-      <c r="E50" s="228"/>
-      <c r="F50" s="228"/>
-      <c r="G50" s="228"/>
-      <c r="H50" s="229"/>
-      <c r="I50" s="228"/>
-      <c r="J50" s="228"/>
-      <c r="K50" s="228"/>
-      <c r="L50" s="228"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="228"/>
-      <c r="O50" s="234"/>
+      <c r="A50" s="128"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="136"/>
     </row>
     <row r="51" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="226"/>
-      <c r="B51" s="227"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="228"/>
-      <c r="E51" s="228"/>
-      <c r="F51" s="228"/>
-      <c r="G51" s="228"/>
-      <c r="H51" s="229"/>
-      <c r="I51" s="228"/>
-      <c r="J51" s="228"/>
-      <c r="K51" s="228"/>
-      <c r="L51" s="228"/>
-      <c r="M51" s="231"/>
-      <c r="N51" s="228"/>
-      <c r="O51" s="227"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="130"/>
+      <c r="O51" s="129"/>
     </row>
     <row r="52" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="232"/>
-      <c r="B52" s="227"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="228"/>
-      <c r="F52" s="228"/>
-      <c r="G52" s="228"/>
-      <c r="H52" s="229"/>
-      <c r="I52" s="228"/>
-      <c r="J52" s="228"/>
-      <c r="K52" s="228"/>
-      <c r="L52" s="228"/>
-      <c r="M52" s="233"/>
-      <c r="N52" s="228"/>
-      <c r="O52" s="234"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="136"/>
     </row>
     <row r="53" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="232"/>
-      <c r="B53" s="227"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="228"/>
-      <c r="E53" s="228"/>
-      <c r="F53" s="228"/>
-      <c r="G53" s="228"/>
-      <c r="H53" s="229"/>
-      <c r="I53" s="228"/>
-      <c r="J53" s="228"/>
-      <c r="K53" s="228"/>
-      <c r="L53" s="228"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="228"/>
-      <c r="O53" s="234"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="135"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="136"/>
     </row>
     <row r="54" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="232"/>
-      <c r="B54" s="227"/>
-      <c r="C54" s="227"/>
-      <c r="D54" s="228"/>
-      <c r="E54" s="228"/>
-      <c r="F54" s="228"/>
-      <c r="G54" s="228"/>
-      <c r="H54" s="229"/>
-      <c r="I54" s="228"/>
-      <c r="J54" s="228"/>
-      <c r="K54" s="228"/>
-      <c r="L54" s="228"/>
-      <c r="M54" s="233"/>
-      <c r="N54" s="228"/>
-      <c r="O54" s="234"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="136"/>
     </row>
     <row r="55" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="226"/>
-      <c r="B55" s="227"/>
-      <c r="C55" s="227"/>
-      <c r="D55" s="228"/>
-      <c r="E55" s="228"/>
-      <c r="F55" s="228"/>
-      <c r="G55" s="228"/>
-      <c r="H55" s="229"/>
-      <c r="I55" s="228"/>
-      <c r="J55" s="228"/>
-      <c r="K55" s="228"/>
-      <c r="L55" s="228"/>
-      <c r="M55" s="231"/>
-      <c r="N55" s="228"/>
-      <c r="O55" s="234"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="136"/>
     </row>
     <row r="56" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="226"/>
-      <c r="B56" s="227"/>
-      <c r="C56" s="227"/>
-      <c r="D56" s="228"/>
-      <c r="E56" s="228"/>
-      <c r="F56" s="228"/>
-      <c r="G56" s="228"/>
-      <c r="H56" s="229"/>
-      <c r="I56" s="228"/>
-      <c r="J56" s="228"/>
-      <c r="K56" s="228"/>
-      <c r="L56" s="228"/>
-      <c r="M56" s="231"/>
-      <c r="N56" s="228"/>
-      <c r="O56" s="227"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="129"/>
     </row>
     <row r="57" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="226"/>
-      <c r="B57" s="227"/>
-      <c r="C57" s="227"/>
-      <c r="D57" s="228"/>
-      <c r="E57" s="228"/>
-      <c r="F57" s="228"/>
-      <c r="G57" s="228"/>
-      <c r="H57" s="229"/>
-      <c r="I57" s="228"/>
-      <c r="J57" s="228"/>
-      <c r="K57" s="228"/>
-      <c r="L57" s="228"/>
-      <c r="M57" s="231"/>
-      <c r="N57" s="228"/>
-      <c r="O57" s="227"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="129"/>
     </row>
     <row r="58" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="226"/>
-      <c r="B58" s="227"/>
-      <c r="C58" s="227"/>
-      <c r="D58" s="228"/>
-      <c r="E58" s="228"/>
-      <c r="F58" s="228"/>
-      <c r="G58" s="228"/>
-      <c r="H58" s="229"/>
-      <c r="I58" s="228"/>
-      <c r="J58" s="228"/>
-      <c r="K58" s="228"/>
-      <c r="L58" s="228"/>
-      <c r="M58" s="231"/>
-      <c r="N58" s="228"/>
-      <c r="O58" s="227"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="130"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="130"/>
+      <c r="O58" s="129"/>
     </row>
     <row r="59" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="226"/>
-      <c r="B59" s="227"/>
-      <c r="C59" s="227"/>
-      <c r="D59" s="228"/>
-      <c r="E59" s="228"/>
-      <c r="F59" s="228"/>
-      <c r="G59" s="228"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="228"/>
-      <c r="J59" s="228"/>
-      <c r="K59" s="228"/>
-      <c r="L59" s="228"/>
-      <c r="M59" s="231"/>
-      <c r="N59" s="228"/>
-      <c r="O59" s="227"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="129"/>
     </row>
     <row r="60" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="226"/>
-      <c r="B60" s="227"/>
-      <c r="C60" s="227"/>
-      <c r="D60" s="228"/>
-      <c r="E60" s="228"/>
-      <c r="F60" s="228"/>
-      <c r="G60" s="228"/>
-      <c r="H60" s="229"/>
-      <c r="I60" s="228"/>
-      <c r="J60" s="228"/>
-      <c r="K60" s="228"/>
-      <c r="L60" s="228"/>
-      <c r="M60" s="231"/>
-      <c r="N60" s="228"/>
-      <c r="O60" s="227"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="130"/>
+      <c r="O60" s="129"/>
     </row>
     <row r="61" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="226"/>
-      <c r="B61" s="227"/>
-      <c r="C61" s="227"/>
-      <c r="D61" s="228"/>
-      <c r="E61" s="228"/>
-      <c r="F61" s="228"/>
-      <c r="G61" s="228"/>
-      <c r="H61" s="229"/>
-      <c r="I61" s="228"/>
-      <c r="J61" s="228"/>
-      <c r="K61" s="228"/>
-      <c r="L61" s="228"/>
-      <c r="M61" s="231"/>
-      <c r="N61" s="228"/>
-      <c r="O61" s="227"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="130"/>
+      <c r="O61" s="129"/>
     </row>
     <row r="62" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="232"/>
-      <c r="B62" s="227"/>
-      <c r="C62" s="227"/>
-      <c r="D62" s="228"/>
-      <c r="E62" s="228"/>
-      <c r="F62" s="228"/>
-      <c r="G62" s="228"/>
-      <c r="H62" s="229"/>
-      <c r="I62" s="228"/>
-      <c r="J62" s="228"/>
-      <c r="K62" s="228"/>
-      <c r="L62" s="228"/>
-      <c r="M62" s="233"/>
-      <c r="N62" s="228"/>
-      <c r="O62" s="227"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="135"/>
+      <c r="N62" s="130"/>
+      <c r="O62" s="129"/>
     </row>
     <row r="63" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="232"/>
-      <c r="B63" s="227"/>
-      <c r="C63" s="227"/>
-      <c r="D63" s="228"/>
-      <c r="E63" s="228"/>
-      <c r="F63" s="228"/>
-      <c r="G63" s="228"/>
-      <c r="H63" s="229"/>
-      <c r="I63" s="228"/>
-      <c r="J63" s="228"/>
-      <c r="K63" s="228"/>
-      <c r="L63" s="228"/>
-      <c r="M63" s="233"/>
-      <c r="N63" s="228"/>
-      <c r="O63" s="227"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="135"/>
+      <c r="N63" s="130"/>
+      <c r="O63" s="129"/>
     </row>
     <row r="64" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="232"/>
-      <c r="B64" s="227"/>
-      <c r="C64" s="227"/>
-      <c r="D64" s="228"/>
-      <c r="E64" s="228"/>
-      <c r="F64" s="228"/>
-      <c r="G64" s="228"/>
-      <c r="H64" s="229"/>
-      <c r="I64" s="228"/>
-      <c r="J64" s="228"/>
-      <c r="K64" s="228"/>
-      <c r="L64" s="228"/>
-      <c r="M64" s="233"/>
-      <c r="N64" s="228"/>
-      <c r="O64" s="227"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="135"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="129"/>
     </row>
     <row r="65" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="232"/>
-      <c r="B65" s="227"/>
-      <c r="C65" s="227"/>
-      <c r="D65" s="228"/>
-      <c r="E65" s="228"/>
-      <c r="F65" s="228"/>
-      <c r="G65" s="228"/>
-      <c r="H65" s="229"/>
-      <c r="I65" s="228"/>
-      <c r="J65" s="228"/>
-      <c r="K65" s="228"/>
-      <c r="L65" s="228"/>
-      <c r="M65" s="233"/>
-      <c r="N65" s="228"/>
-      <c r="O65" s="227"/>
+      <c r="A65" s="134"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="130"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="135"/>
+      <c r="N65" s="130"/>
+      <c r="O65" s="129"/>
     </row>
     <row r="66" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="232"/>
-      <c r="B66" s="227"/>
-      <c r="C66" s="227"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="228"/>
-      <c r="H66" s="229"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="228"/>
-      <c r="K66" s="228"/>
-      <c r="L66" s="228"/>
-      <c r="M66" s="233"/>
-      <c r="N66" s="228"/>
-      <c r="O66" s="227"/>
+      <c r="A66" s="134"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="135"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="129"/>
     </row>
     <row r="67" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="232"/>
-      <c r="B67" s="227"/>
-      <c r="C67" s="227"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="228"/>
-      <c r="F67" s="228"/>
-      <c r="G67" s="228"/>
-      <c r="H67" s="229"/>
-      <c r="I67" s="228"/>
-      <c r="J67" s="228"/>
-      <c r="K67" s="228"/>
-      <c r="L67" s="228"/>
-      <c r="M67" s="233"/>
-      <c r="N67" s="228"/>
-      <c r="O67" s="227"/>
+      <c r="A67" s="134"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="131"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="135"/>
+      <c r="N67" s="130"/>
+      <c r="O67" s="129"/>
     </row>
     <row r="68" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="232"/>
-      <c r="B68" s="227"/>
-      <c r="C68" s="227"/>
-      <c r="D68" s="228"/>
-      <c r="E68" s="228"/>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="229"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="228"/>
-      <c r="K68" s="228"/>
-      <c r="L68" s="228"/>
-      <c r="M68" s="233"/>
-      <c r="N68" s="228"/>
-      <c r="O68" s="227"/>
+      <c r="A68" s="134"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="130"/>
+      <c r="M68" s="135"/>
+      <c r="N68" s="130"/>
+      <c r="O68" s="129"/>
     </row>
     <row r="69" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="232"/>
-      <c r="B69" s="227"/>
-      <c r="C69" s="227"/>
-      <c r="D69" s="228"/>
-      <c r="E69" s="228"/>
-      <c r="F69" s="228"/>
-      <c r="G69" s="228"/>
-      <c r="H69" s="229"/>
-      <c r="I69" s="228"/>
-      <c r="J69" s="228"/>
-      <c r="K69" s="228"/>
-      <c r="L69" s="228"/>
-      <c r="M69" s="233"/>
-      <c r="N69" s="228"/>
-      <c r="O69" s="227"/>
+      <c r="A69" s="134"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="135"/>
+      <c r="N69" s="130"/>
+      <c r="O69" s="129"/>
     </row>
     <row r="70" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="232"/>
-      <c r="B70" s="227"/>
-      <c r="C70" s="227"/>
-      <c r="D70" s="228"/>
-      <c r="E70" s="228"/>
-      <c r="F70" s="228"/>
-      <c r="G70" s="228"/>
-      <c r="H70" s="229"/>
-      <c r="I70" s="228"/>
-      <c r="J70" s="228"/>
-      <c r="K70" s="228"/>
-      <c r="L70" s="228"/>
-      <c r="M70" s="233"/>
-      <c r="N70" s="228"/>
-      <c r="O70" s="227"/>
+      <c r="A70" s="134"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="131"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="130"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="135"/>
+      <c r="N70" s="130"/>
+      <c r="O70" s="129"/>
     </row>
     <row r="71" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="232"/>
-      <c r="B71" s="227"/>
-      <c r="C71" s="227"/>
-      <c r="D71" s="228"/>
-      <c r="E71" s="228"/>
-      <c r="F71" s="228"/>
-      <c r="G71" s="228"/>
-      <c r="H71" s="229"/>
-      <c r="I71" s="228"/>
-      <c r="J71" s="228"/>
-      <c r="K71" s="228"/>
-      <c r="L71" s="228"/>
-      <c r="M71" s="233"/>
-      <c r="N71" s="228"/>
-      <c r="O71" s="227"/>
+      <c r="A71" s="134"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="131"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="130"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="135"/>
+      <c r="N71" s="130"/>
+      <c r="O71" s="129"/>
     </row>
     <row r="72" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="232"/>
-      <c r="B72" s="227"/>
-      <c r="C72" s="227"/>
-      <c r="D72" s="228"/>
-      <c r="E72" s="228"/>
-      <c r="F72" s="228"/>
-      <c r="G72" s="228"/>
-      <c r="H72" s="229"/>
-      <c r="I72" s="228"/>
-      <c r="J72" s="228"/>
-      <c r="K72" s="228"/>
-      <c r="L72" s="228"/>
-      <c r="M72" s="233"/>
-      <c r="N72" s="228"/>
-      <c r="O72" s="227"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="131"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="135"/>
+      <c r="N72" s="130"/>
+      <c r="O72" s="129"/>
     </row>
     <row r="73" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="226"/>
-      <c r="B73" s="227"/>
-      <c r="C73" s="227"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="228"/>
-      <c r="J73" s="228"/>
-      <c r="K73" s="228"/>
-      <c r="L73" s="228"/>
-      <c r="M73" s="231"/>
-      <c r="N73" s="228"/>
-      <c r="O73" s="227"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="131"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="133"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="129"/>
     </row>
     <row r="74" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="232"/>
-      <c r="B74" s="227"/>
-      <c r="C74" s="227"/>
-      <c r="D74" s="228"/>
-      <c r="E74" s="228"/>
-      <c r="F74" s="228"/>
-      <c r="G74" s="228"/>
-      <c r="H74" s="229"/>
-      <c r="I74" s="228"/>
-      <c r="J74" s="228"/>
-      <c r="K74" s="228"/>
-      <c r="L74" s="228"/>
-      <c r="M74" s="233"/>
-      <c r="N74" s="228"/>
-      <c r="O74" s="227"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="131"/>
+      <c r="I74" s="130"/>
+      <c r="J74" s="130"/>
+      <c r="K74" s="130"/>
+      <c r="L74" s="130"/>
+      <c r="M74" s="135"/>
+      <c r="N74" s="130"/>
+      <c r="O74" s="129"/>
     </row>
     <row r="75" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="232"/>
-      <c r="B75" s="227"/>
-      <c r="C75" s="227"/>
-      <c r="D75" s="228"/>
-      <c r="E75" s="228"/>
-      <c r="F75" s="228"/>
-      <c r="G75" s="228"/>
-      <c r="H75" s="229"/>
-      <c r="I75" s="228"/>
-      <c r="J75" s="228"/>
-      <c r="K75" s="228"/>
-      <c r="L75" s="228"/>
-      <c r="M75" s="233"/>
-      <c r="N75" s="228"/>
-      <c r="O75" s="227"/>
+      <c r="A75" s="134"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="130"/>
+      <c r="L75" s="130"/>
+      <c r="M75" s="135"/>
+      <c r="N75" s="130"/>
+      <c r="O75" s="129"/>
     </row>
     <row r="76" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="232"/>
-      <c r="B76" s="227"/>
-      <c r="C76" s="227"/>
-      <c r="D76" s="228"/>
-      <c r="E76" s="228"/>
-      <c r="F76" s="228"/>
-      <c r="G76" s="228"/>
-      <c r="H76" s="229"/>
-      <c r="I76" s="228"/>
-      <c r="J76" s="228"/>
-      <c r="K76" s="228"/>
-      <c r="L76" s="228"/>
-      <c r="M76" s="233"/>
-      <c r="N76" s="228"/>
-      <c r="O76" s="227"/>
+      <c r="A76" s="134"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="130"/>
+      <c r="K76" s="130"/>
+      <c r="L76" s="130"/>
+      <c r="M76" s="135"/>
+      <c r="N76" s="130"/>
+      <c r="O76" s="129"/>
     </row>
     <row r="77" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="226"/>
-      <c r="B77" s="227"/>
-      <c r="C77" s="227"/>
-      <c r="D77" s="228"/>
-      <c r="E77" s="228"/>
-      <c r="F77" s="228"/>
-      <c r="G77" s="228"/>
-      <c r="H77" s="229"/>
-      <c r="I77" s="228"/>
-      <c r="J77" s="228"/>
-      <c r="K77" s="228"/>
-      <c r="L77" s="228"/>
-      <c r="M77" s="231"/>
-      <c r="N77" s="228"/>
-      <c r="O77" s="234"/>
+      <c r="A77" s="128"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="129"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="130"/>
+      <c r="G77" s="130"/>
+      <c r="H77" s="131"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="130"/>
+      <c r="M77" s="133"/>
+      <c r="N77" s="130"/>
+      <c r="O77" s="136"/>
       <c r="Q77">
         <f>5415000-3000000-2143000</f>
         <v>272000</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="226"/>
-      <c r="B78" s="227"/>
-      <c r="C78" s="227"/>
-      <c r="D78" s="228"/>
-      <c r="E78" s="228"/>
-      <c r="F78" s="228"/>
-      <c r="G78" s="228"/>
-      <c r="H78" s="229"/>
-      <c r="I78" s="228"/>
-      <c r="J78" s="228"/>
-      <c r="K78" s="228"/>
-      <c r="L78" s="228"/>
-      <c r="M78" s="231"/>
-      <c r="N78" s="228"/>
-      <c r="O78" s="227"/>
+      <c r="A78" s="128"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="129"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
+      <c r="G78" s="130"/>
+      <c r="H78" s="131"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="130"/>
+      <c r="K78" s="130"/>
+      <c r="L78" s="130"/>
+      <c r="M78" s="133"/>
+      <c r="N78" s="130"/>
+      <c r="O78" s="129"/>
     </row>
     <row r="79" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="232"/>
-      <c r="B79" s="227"/>
-      <c r="C79" s="227"/>
-      <c r="D79" s="228"/>
-      <c r="E79" s="228"/>
-      <c r="F79" s="228"/>
-      <c r="G79" s="228"/>
-      <c r="H79" s="229"/>
-      <c r="I79" s="228"/>
-      <c r="J79" s="228"/>
-      <c r="K79" s="228"/>
-      <c r="L79" s="228"/>
-      <c r="M79" s="233"/>
-      <c r="N79" s="228"/>
-      <c r="O79" s="227"/>
+      <c r="A79" s="134"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="130"/>
+      <c r="G79" s="130"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="130"/>
+      <c r="J79" s="130"/>
+      <c r="K79" s="130"/>
+      <c r="L79" s="130"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="130"/>
+      <c r="O79" s="129"/>
     </row>
     <row r="80" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="235"/>
-      <c r="B80" s="236"/>
-      <c r="C80" s="236"/>
-      <c r="D80" s="237"/>
-      <c r="E80" s="237"/>
-      <c r="F80" s="237"/>
-      <c r="G80" s="237"/>
-      <c r="H80" s="238"/>
-      <c r="I80" s="237"/>
-      <c r="J80" s="237"/>
-      <c r="K80" s="237"/>
-      <c r="L80" s="237"/>
-      <c r="M80" s="239"/>
-      <c r="N80" s="237"/>
-      <c r="O80" s="236"/>
+      <c r="A80" s="137"/>
+      <c r="B80" s="138"/>
+      <c r="C80" s="138"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="139"/>
+      <c r="F80" s="139"/>
+      <c r="G80" s="139"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="139"/>
+      <c r="J80" s="139"/>
+      <c r="K80" s="139"/>
+      <c r="L80" s="139"/>
+      <c r="M80" s="141"/>
+      <c r="N80" s="139"/>
+      <c r="O80" s="138"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="240" t="s">
+      <c r="A81" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="240"/>
-      <c r="C81" s="241">
+      <c r="B81" s="218"/>
+      <c r="C81" s="142">
         <f>SUM(C8:C80)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="242"/>
-      <c r="E81" s="243">
+      <c r="D81" s="143"/>
+      <c r="E81" s="144">
         <f>SUM(E8:E80)</f>
         <v>7565000</v>
       </c>
-      <c r="F81" s="243"/>
-      <c r="G81" s="243">
+      <c r="F81" s="144"/>
+      <c r="G81" s="144">
         <f t="shared" ref="G81:L81" si="7">SUM(G8:G80)</f>
         <v>245000</v>
       </c>
-      <c r="H81" s="243"/>
-      <c r="I81" s="244">
+      <c r="H81" s="144"/>
+      <c r="I81" s="145">
         <f t="shared" si="7"/>
         <v>7584500</v>
       </c>
-      <c r="J81" s="243">
+      <c r="J81" s="144">
         <f t="shared" si="7"/>
         <v>5415000</v>
       </c>
-      <c r="K81" s="243"/>
-      <c r="L81" s="243">
+      <c r="K81" s="144"/>
+      <c r="L81" s="144">
         <f t="shared" si="7"/>
         <v>2169500</v>
       </c>
-      <c r="M81" s="243"/>
-      <c r="N81" s="243"/>
-      <c r="O81" s="242"/>
+      <c r="M81" s="144"/>
+      <c r="N81" s="144"/>
+      <c r="O81" s="143"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="245"/>
-      <c r="B82" s="245"/>
-      <c r="C82" s="246"/>
-      <c r="D82" s="246"/>
-      <c r="E82" s="247"/>
-      <c r="F82" s="247"/>
-      <c r="G82" s="246"/>
-      <c r="H82" s="248"/>
-      <c r="I82" s="249"/>
-      <c r="J82" s="246"/>
-      <c r="K82" s="246"/>
-      <c r="L82" s="246"/>
-      <c r="M82" s="245"/>
-      <c r="N82" s="246"/>
-      <c r="O82" s="250"/>
+      <c r="A82" s="146"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="147"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="147"/>
+      <c r="H82" s="149"/>
+      <c r="I82" s="150"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="147"/>
+      <c r="L82" s="147"/>
+      <c r="M82" s="146"/>
+      <c r="N82" s="147"/>
+      <c r="O82" s="151"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="251"/>
-      <c r="B83" s="252"/>
-      <c r="C83" s="252"/>
-      <c r="D83" s="253"/>
-      <c r="E83" s="253"/>
-      <c r="F83" s="253"/>
-      <c r="G83" s="253"/>
-      <c r="H83" s="254"/>
-      <c r="I83" s="253"/>
-      <c r="J83" s="253"/>
-      <c r="K83" s="253"/>
-      <c r="L83" s="253"/>
-      <c r="M83" s="255"/>
-      <c r="N83" s="253"/>
-      <c r="O83" s="256"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="154"/>
+      <c r="E83" s="154"/>
+      <c r="F83" s="154"/>
+      <c r="G83" s="154"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
+      <c r="K83" s="154"/>
+      <c r="L83" s="154"/>
+      <c r="M83" s="156"/>
+      <c r="N83" s="154"/>
+      <c r="O83" s="157"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J86" s="257">
+      <c r="J86" s="158">
         <f>J81-3000000-2143000</f>
         <v>272000</v>
       </c>
-      <c r="K86" s="257"/>
+      <c r="K86" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="M10:M12"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:A7"/>
@@ -9090,6 +9369,26 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="M25:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
